--- a/Documents/Foodies_Risks_sheet.xlsx
+++ b/Documents/Foodies_Risks_sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marwa\Documents\GitHub\Foodies\Foodies_Documents_Baseline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marwa\Documents\GitHub\Foodies\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revisison_History" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
   <si>
     <t>Revised on</t>
   </si>
@@ -295,6 +295,19 @@
   </si>
   <si>
     <t>All Comments implemented with some modifications</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_Risk_011</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>a team member got accepted in external training that 
+may affect her progress in working so team will work as 4 not 5</t>
+  </si>
+  <si>
+    <t>By distrbuting tasks among the team member , her portion of tasks will be less than others.</t>
   </si>
 </sst>
 </file>
@@ -873,7 +886,7 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
@@ -29938,9 +29951,9 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29975,7 +29988,9 @@
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -30404,14 +30419,28 @@
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
     </row>
-    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+    <row r="12" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>

--- a/Documents/Foodies_Risks_sheet.xlsx
+++ b/Documents/Foodies_Risks_sheet.xlsx
@@ -303,11 +303,11 @@
     <t>status</t>
   </si>
   <si>
-    <t>a team member got accepted in external training that 
-may affect her progress in working so team will work as 4 not 5</t>
+    <t>By distrbuting tasks among the team member , her portion of tasks will be less than others.</t>
   </si>
   <si>
-    <t>By distrbuting tasks among the team member , her portion of tasks will be less than others.</t>
+    <t>a team member got accepted in external training that 
+may affect her progress in working so number of team memebers decreased so workload will unfair.</t>
   </si>
 </sst>
 </file>
@@ -29953,7 +29953,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30424,7 +30424,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>26</v>
@@ -30436,7 +30436,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>28</v>
